--- a/Code/Results/Cases/Case_0_252/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_252/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C2">
-        <v>1.009526542351382</v>
+        <v>1.057518251446868</v>
       </c>
       <c r="D2">
-        <v>1.016383455425122</v>
+        <v>1.056715957242074</v>
       </c>
       <c r="E2">
-        <v>1.020572695326346</v>
+        <v>1.062893469647623</v>
       </c>
       <c r="F2">
-        <v>1.023509521236051</v>
+        <v>1.071854599782754</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051223244912053</v>
+        <v>1.042107760283332</v>
       </c>
       <c r="J2">
-        <v>1.031426002369099</v>
+        <v>1.062514257117994</v>
       </c>
       <c r="K2">
-        <v>1.027619165453916</v>
+        <v>1.059452906078154</v>
       </c>
       <c r="L2">
-        <v>1.031752671075341</v>
+        <v>1.065613583238335</v>
       </c>
       <c r="M2">
-        <v>1.034650766053783</v>
+        <v>1.07455066508777</v>
       </c>
       <c r="N2">
-        <v>1.032890745598679</v>
+        <v>1.064023149235191</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.017769227827132</v>
+        <v>1.05911502416933</v>
       </c>
       <c r="D3">
-        <v>1.023542403701941</v>
+        <v>1.058142751221481</v>
       </c>
       <c r="E3">
-        <v>1.027861538108075</v>
+        <v>1.064356979464462</v>
       </c>
       <c r="F3">
-        <v>1.031602205617188</v>
+        <v>1.073502876126512</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053838717786214</v>
+        <v>1.042479212575983</v>
       </c>
       <c r="J3">
-        <v>1.037786934123073</v>
+        <v>1.063760419306233</v>
       </c>
       <c r="K3">
-        <v>1.033882662291774</v>
+        <v>1.060691834741804</v>
       </c>
       <c r="L3">
-        <v>1.038149916995709</v>
+        <v>1.066890369012287</v>
       </c>
       <c r="M3">
-        <v>1.041846088068451</v>
+        <v>1.076013523524804</v>
       </c>
       <c r="N3">
-        <v>1.039260710605353</v>
+        <v>1.065271081116673</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.022926749355371</v>
+        <v>1.060145989020426</v>
       </c>
       <c r="D4">
-        <v>1.028026896372424</v>
+        <v>1.059064097709289</v>
       </c>
       <c r="E4">
-        <v>1.032428689355726</v>
+        <v>1.065302196934802</v>
       </c>
       <c r="F4">
-        <v>1.036675294641628</v>
+        <v>1.07456785146581</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055456579264673</v>
+        <v>1.042716730368081</v>
       </c>
       <c r="J4">
-        <v>1.041761628594785</v>
+        <v>1.064564145330729</v>
       </c>
       <c r="K4">
-        <v>1.037798431495739</v>
+        <v>1.061491101628025</v>
       </c>
       <c r="L4">
-        <v>1.042150869840457</v>
+        <v>1.067714250061572</v>
       </c>
       <c r="M4">
-        <v>1.04635034884731</v>
+        <v>1.07695804147535</v>
       </c>
       <c r="N4">
-        <v>1.043241049599119</v>
+        <v>1.066075948524313</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.025055406401646</v>
+        <v>1.06057887737803</v>
       </c>
       <c r="D5">
-        <v>1.029878899283194</v>
+        <v>1.059450989022539</v>
       </c>
       <c r="E5">
-        <v>1.034315143107048</v>
+        <v>1.065699151008578</v>
       </c>
       <c r="F5">
-        <v>1.038771295786778</v>
+        <v>1.075015201179158</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056119761317353</v>
+        <v>1.04281590657633</v>
       </c>
       <c r="J5">
-        <v>1.0434007319087</v>
+        <v>1.064901411444186</v>
       </c>
       <c r="K5">
-        <v>1.039413700003854</v>
+        <v>1.061826545971066</v>
       </c>
       <c r="L5">
-        <v>1.043801656873133</v>
+        <v>1.068060070709025</v>
       </c>
       <c r="M5">
-        <v>1.048209814647533</v>
+        <v>1.077354635239489</v>
       </c>
       <c r="N5">
-        <v>1.044882480627747</v>
+        <v>1.066413693594336</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.025410567719004</v>
+        <v>1.060651530499894</v>
       </c>
       <c r="D6">
-        <v>1.030187965072902</v>
+        <v>1.059515924057079</v>
       </c>
       <c r="E6">
-        <v>1.034629976763351</v>
+        <v>1.065765777239053</v>
       </c>
       <c r="F6">
-        <v>1.039121135575621</v>
+        <v>1.07509029199197</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056230141463806</v>
+        <v>1.042832519122917</v>
       </c>
       <c r="J6">
-        <v>1.043674129939269</v>
+        <v>1.064958003763005</v>
       </c>
       <c r="K6">
-        <v>1.0396831496908</v>
+        <v>1.061882835501232</v>
       </c>
       <c r="L6">
-        <v>1.044077054022836</v>
+        <v>1.068118104145238</v>
       </c>
       <c r="M6">
-        <v>1.048520085263004</v>
+        <v>1.077421197098084</v>
       </c>
       <c r="N6">
-        <v>1.045156266914878</v>
+        <v>1.066470366280739</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.022955344806623</v>
+        <v>1.060151775361191</v>
       </c>
       <c r="D7">
-        <v>1.028051771038049</v>
+        <v>1.05906926909791</v>
       </c>
       <c r="E7">
-        <v>1.032454025486242</v>
+        <v>1.065307502674514</v>
       </c>
       <c r="F7">
-        <v>1.036703442813625</v>
+        <v>1.074573830398682</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055465506308155</v>
+        <v>1.042718058218711</v>
       </c>
       <c r="J7">
-        <v>1.041783653100949</v>
+        <v>1.064568654323367</v>
       </c>
       <c r="K7">
-        <v>1.037820133898395</v>
+        <v>1.061495586070631</v>
       </c>
       <c r="L7">
-        <v>1.042173047951815</v>
+        <v>1.067718873040512</v>
       </c>
       <c r="M7">
-        <v>1.046375326495243</v>
+        <v>1.076963342660386</v>
       </c>
       <c r="N7">
-        <v>1.043263105382607</v>
+        <v>1.066080463920238</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.012350282236573</v>
+        <v>1.058058361176819</v>
       </c>
       <c r="D8">
-        <v>1.018834799771478</v>
+        <v>1.057198544267197</v>
       </c>
       <c r="E8">
-        <v>1.02306824805326</v>
+        <v>1.063388441639612</v>
       </c>
       <c r="F8">
-        <v>1.026279835569573</v>
+        <v>1.072411973460063</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0521231402761</v>
+        <v>1.042233883394967</v>
       </c>
       <c r="J8">
-        <v>1.033606195599107</v>
+        <v>1.062935951630019</v>
       </c>
       <c r="K8">
-        <v>1.029765545340009</v>
+        <v>1.059872110039143</v>
       </c>
       <c r="L8">
-        <v>1.033944554809115</v>
+        <v>1.066045556882632</v>
       </c>
       <c r="M8">
-        <v>1.037115217962037</v>
+        <v>1.075045474711102</v>
       </c>
       <c r="N8">
-        <v>1.035074034953146</v>
+        <v>1.064445442601792</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.992183794357305</v>
+        <v>1.054351771230171</v>
       </c>
       <c r="D9">
-        <v>1.001354420153509</v>
+        <v>1.053887274060213</v>
       </c>
       <c r="E9">
-        <v>1.00527801586952</v>
+        <v>1.059992853837604</v>
       </c>
       <c r="F9">
-        <v>1.006539304264621</v>
+        <v>1.068590039293027</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045618482179327</v>
+        <v>1.04135885138452</v>
       </c>
       <c r="J9">
-        <v>1.018015614641485</v>
+        <v>1.060038464218867</v>
       </c>
       <c r="K9">
-        <v>1.01442556099052</v>
+        <v>1.056992584472888</v>
       </c>
       <c r="L9">
-        <v>1.018286037449458</v>
+        <v>1.063079100268165</v>
       </c>
       <c r="M9">
-        <v>1.019527169349746</v>
+        <v>1.071649845012732</v>
       </c>
       <c r="N9">
-        <v>1.0194613135823</v>
+        <v>1.061543840426169</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9775345995350913</v>
+        <v>1.051868139582033</v>
       </c>
       <c r="D10">
-        <v>0.9886964247102749</v>
+        <v>1.051669265575735</v>
       </c>
       <c r="E10">
-        <v>0.9924023343776984</v>
+        <v>1.057719194054605</v>
       </c>
       <c r="F10">
-        <v>0.9922611346725816</v>
+        <v>1.066033077300311</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040797531034201</v>
+        <v>1.040760620904636</v>
       </c>
       <c r="J10">
-        <v>1.006668794318031</v>
+        <v>1.058092547750064</v>
       </c>
       <c r="K10">
-        <v>1.003272812596001</v>
+        <v>1.055059798266281</v>
       </c>
       <c r="L10">
-        <v>1.006910135514823</v>
+        <v>1.061088945995441</v>
       </c>
       <c r="M10">
-        <v>1.00677153681546</v>
+        <v>1.069374694812342</v>
       </c>
       <c r="N10">
-        <v>1.008098379472487</v>
+        <v>1.059595160532781</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9708485169737682</v>
+        <v>1.050789571466107</v>
       </c>
       <c r="D11">
-        <v>0.982930830455541</v>
+        <v>1.050706234117474</v>
       </c>
       <c r="E11">
-        <v>0.986539090205123</v>
+        <v>1.056732194445032</v>
       </c>
       <c r="F11">
-        <v>0.9857607276485588</v>
+        <v>1.064923608562975</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03857590580499</v>
+        <v>1.040498010801024</v>
       </c>
       <c r="J11">
-        <v>1.001486409826904</v>
+        <v>1.057246449336696</v>
       </c>
       <c r="K11">
-        <v>0.9981819887243188</v>
+        <v>1.054219661920028</v>
       </c>
       <c r="L11">
-        <v>1.00171940399666</v>
+        <v>1.060224104369746</v>
       </c>
       <c r="M11">
-        <v>1.000956266221783</v>
+        <v>1.068386698318233</v>
       </c>
       <c r="N11">
-        <v>1.002908635400955</v>
+        <v>1.058747860562617</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9683076905075078</v>
+        <v>1.050388458899488</v>
       </c>
       <c r="D12">
-        <v>0.9807417760432918</v>
+        <v>1.050348117414243</v>
       </c>
       <c r="E12">
-        <v>0.9843131784487685</v>
+        <v>1.056365194026398</v>
       </c>
       <c r="F12">
-        <v>0.9832930836246498</v>
+        <v>1.064511146684357</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037728600401352</v>
+        <v>1.040399925349643</v>
       </c>
       <c r="J12">
-        <v>0.9995166395305892</v>
+        <v>1.056931634446573</v>
       </c>
       <c r="K12">
-        <v>0.9962474735853988</v>
+        <v>1.053907103373692</v>
       </c>
       <c r="L12">
-        <v>0.9997472130674594</v>
+        <v>1.059902389260263</v>
       </c>
       <c r="M12">
-        <v>0.9987475173583494</v>
+        <v>1.068019274397877</v>
       </c>
       <c r="N12">
-        <v>1.000936067804884</v>
+        <v>1.05843259859924</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9688554035678512</v>
+        <v>1.050474521029735</v>
       </c>
       <c r="D13">
-        <v>0.9812135667220797</v>
+        <v>1.050424953110722</v>
       </c>
       <c r="E13">
-        <v>0.9847929030241922</v>
+        <v>1.056443934449318</v>
       </c>
       <c r="F13">
-        <v>0.9838248998772341</v>
+        <v>1.064599637454021</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037911384705906</v>
+        <v>1.040420989523893</v>
       </c>
       <c r="J13">
-        <v>0.9999412670522773</v>
+        <v>1.056999187735935</v>
       </c>
       <c r="K13">
-        <v>0.9966644803441027</v>
+        <v>1.053974170776149</v>
       </c>
       <c r="L13">
-        <v>1.000172328301356</v>
+        <v>1.059971419872473</v>
       </c>
       <c r="M13">
-        <v>0.9992235911391684</v>
+        <v>1.068098108077911</v>
       </c>
       <c r="N13">
-        <v>1.001361298346358</v>
+        <v>1.058500247822022</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9706396976188587</v>
+        <v>1.050756425330713</v>
       </c>
       <c r="D14">
-        <v>0.982750880446166</v>
+        <v>1.050676640380135</v>
       </c>
       <c r="E14">
-        <v>0.9863561059924646</v>
+        <v>1.05670186598859</v>
       </c>
       <c r="F14">
-        <v>0.9855578686775974</v>
+        <v>1.064889521664134</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038506330342229</v>
+        <v>1.040489914071664</v>
       </c>
       <c r="J14">
-        <v>1.001324529674902</v>
+        <v>1.05722043763682</v>
       </c>
       <c r="K14">
-        <v>0.9980229966356627</v>
+        <v>1.054193835876955</v>
       </c>
       <c r="L14">
-        <v>1.001557309615958</v>
+        <v>1.060197521034326</v>
       </c>
       <c r="M14">
-        <v>1.000774714446956</v>
+        <v>1.068356335942904</v>
       </c>
       <c r="N14">
-        <v>1.002746525360569</v>
+        <v>1.058721811923144</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9717312755169951</v>
+        <v>1.050930051311634</v>
       </c>
       <c r="D15">
-        <v>0.9836916286485573</v>
+        <v>1.050831659373225</v>
       </c>
       <c r="E15">
-        <v>0.9873127252919777</v>
+        <v>1.056860734807689</v>
       </c>
       <c r="F15">
-        <v>0.9866183968545288</v>
+        <v>1.065068081382245</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038869904843848</v>
+        <v>1.040532309046273</v>
       </c>
       <c r="J15">
-        <v>1.002170724353089</v>
+        <v>1.057356685645318</v>
       </c>
       <c r="K15">
-        <v>0.9988541130753767</v>
+        <v>1.05432911297877</v>
       </c>
       <c r="L15">
-        <v>1.002404654706375</v>
+        <v>1.060336766257998</v>
       </c>
       <c r="M15">
-        <v>1.00172380225109</v>
+        <v>1.068515380274543</v>
       </c>
       <c r="N15">
-        <v>1.003593921732259</v>
+        <v>1.058858253419441</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9779706338758385</v>
+        <v>1.051939653373741</v>
       </c>
       <c r="D16">
-        <v>0.9890726874282366</v>
+        <v>1.051733122730577</v>
       </c>
       <c r="E16">
-        <v>0.9927850001119619</v>
+        <v>1.057784644594504</v>
       </c>
       <c r="F16">
-        <v>0.9926854105169429</v>
+        <v>1.066106659861226</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040941987964354</v>
+        <v>1.040777973895556</v>
       </c>
       <c r="J16">
-        <v>1.007006704235994</v>
+        <v>1.058148625855376</v>
       </c>
       <c r="K16">
-        <v>1.003604813877605</v>
+        <v>1.055115486534172</v>
       </c>
       <c r="L16">
-        <v>1.007248692260016</v>
+        <v>1.0611462767021</v>
       </c>
       <c r="M16">
-        <v>1.007150929838257</v>
+        <v>1.069440204071759</v>
       </c>
       <c r="N16">
-        <v>1.008436769261292</v>
+        <v>1.059651318275435</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9817887995508582</v>
+        <v>1.052572100680139</v>
       </c>
       <c r="D17">
-        <v>0.9923687929927076</v>
+        <v>1.052297878318776</v>
       </c>
       <c r="E17">
-        <v>0.9961373650547971</v>
+        <v>1.058363514627079</v>
       </c>
       <c r="F17">
-        <v>0.9964024642330175</v>
+        <v>1.066757511783858</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042204561162826</v>
+        <v>1.040931113974585</v>
       </c>
       <c r="J17">
-        <v>1.009965254526653</v>
+        <v>1.058644444040284</v>
       </c>
       <c r="K17">
-        <v>1.006511961142794</v>
+        <v>1.055607887101052</v>
       </c>
       <c r="L17">
-        <v>1.010213460916586</v>
+        <v>1.061653226503356</v>
       </c>
       <c r="M17">
-        <v>1.010473866687915</v>
+        <v>1.070019553043422</v>
       </c>
       <c r="N17">
-        <v>1.011399521032715</v>
+        <v>1.060147840579036</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9839832244266428</v>
+        <v>1.052940694469918</v>
       </c>
       <c r="D18">
-        <v>0.9942642490857223</v>
+        <v>1.052627038700086</v>
       </c>
       <c r="E18">
-        <v>0.9980653149159272</v>
+        <v>1.058700920213356</v>
       </c>
       <c r="F18">
-        <v>0.9985402914944843</v>
+        <v>1.067136922832492</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042928204057851</v>
+        <v>1.041020093561084</v>
       </c>
       <c r="J18">
-        <v>1.011665287435598</v>
+        <v>1.058933309011201</v>
       </c>
       <c r="K18">
-        <v>1.008182729036516</v>
+        <v>1.055894785304175</v>
       </c>
       <c r="L18">
-        <v>1.011917527318276</v>
+        <v>1.061948624118401</v>
       </c>
       <c r="M18">
-        <v>1.012384269068337</v>
+        <v>1.070357204097115</v>
       </c>
       <c r="N18">
-        <v>1.013101968183387</v>
+        <v>1.060437115771345</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9847260908816536</v>
+        <v>1.053066324580913</v>
       </c>
       <c r="D19">
-        <v>0.994906083987927</v>
+        <v>1.052739231454661</v>
       </c>
       <c r="E19">
-        <v>0.9987181769733392</v>
+        <v>1.058815926496823</v>
       </c>
       <c r="F19">
-        <v>0.9992642506456626</v>
+        <v>1.067266255267536</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043172831668468</v>
+        <v>1.041050374989068</v>
       </c>
       <c r="J19">
-        <v>1.012240727662442</v>
+        <v>1.059031747571331</v>
       </c>
       <c r="K19">
-        <v>1.008748309162942</v>
+        <v>1.055992557764765</v>
       </c>
       <c r="L19">
-        <v>1.012494410642863</v>
+        <v>1.062049296887378</v>
       </c>
       <c r="M19">
-        <v>1.013031084485099</v>
+        <v>1.070472288342464</v>
       </c>
       <c r="N19">
-        <v>1.013678225601357</v>
+        <v>1.060535694125522</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9813825623322788</v>
+        <v>1.052504276401238</v>
       </c>
       <c r="D20">
-        <v>0.9920179874536564</v>
+        <v>1.052237311529855</v>
       </c>
       <c r="E20">
-        <v>0.9957805571725873</v>
+        <v>1.058301432202238</v>
       </c>
       <c r="F20">
-        <v>0.9960068262361087</v>
+        <v>1.0666877043618</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042070435523768</v>
+        <v>1.040914719145945</v>
       </c>
       <c r="J20">
-        <v>1.009650511490377</v>
+        <v>1.05859128241038</v>
       </c>
       <c r="K20">
-        <v>1.006202658180542</v>
+        <v>1.055555089388972</v>
       </c>
       <c r="L20">
-        <v>1.009898008390431</v>
+        <v>1.061598866444189</v>
       </c>
       <c r="M20">
-        <v>1.01012025609303</v>
+        <v>1.069957422741214</v>
       </c>
       <c r="N20">
-        <v>1.011084331025226</v>
+        <v>1.06009460345352</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9701159010323221</v>
+        <v>1.05067342501338</v>
       </c>
       <c r="D21">
-        <v>0.9822995313538709</v>
+        <v>1.050602535987576</v>
       </c>
       <c r="E21">
-        <v>0.9858971500098627</v>
+        <v>1.056625922288647</v>
       </c>
       <c r="F21">
-        <v>0.9850490656902122</v>
+        <v>1.064804167909134</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038331760761247</v>
+        <v>1.040469632456624</v>
       </c>
       <c r="J21">
-        <v>1.000918468615861</v>
+        <v>1.057155299938886</v>
       </c>
       <c r="K21">
-        <v>0.9976241873558576</v>
+        <v>1.054129163708443</v>
       </c>
       <c r="L21">
-        <v>1.001150723302773</v>
+        <v>1.060130953054224</v>
       </c>
       <c r="M21">
-        <v>1.000319334239878</v>
+        <v>1.068280306454646</v>
       </c>
       <c r="N21">
-        <v>1.002339887648249</v>
+        <v>1.058656581722208</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9626968818594951</v>
+        <v>1.049519487418312</v>
       </c>
       <c r="D22">
-        <v>0.9759116819863402</v>
+        <v>1.049572345393043</v>
       </c>
       <c r="E22">
-        <v>0.979402152620243</v>
+        <v>1.055570230873828</v>
       </c>
       <c r="F22">
-        <v>0.977848937454795</v>
+        <v>1.063617849186108</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035852072740863</v>
+        <v>1.040186660550062</v>
       </c>
       <c r="J22">
-        <v>0.9951663750024032</v>
+        <v>1.056249333126056</v>
       </c>
       <c r="K22">
-        <v>0.9919759281804493</v>
+        <v>1.053229761756789</v>
       </c>
       <c r="L22">
-        <v>0.9953930063369856</v>
+        <v>1.059205267789281</v>
       </c>
       <c r="M22">
-        <v>0.9938723643062449</v>
+        <v>1.067223296965324</v>
       </c>
       <c r="N22">
-        <v>0.9965796254020851</v>
+        <v>1.057749328332587</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9666638132201683</v>
+        <v>1.050131482076157</v>
       </c>
       <c r="D23">
-        <v>0.9793260754975071</v>
+        <v>1.050118694458587</v>
       </c>
       <c r="E23">
-        <v>0.9828737019760213</v>
+        <v>1.056130088030617</v>
       </c>
       <c r="F23">
-        <v>0.981697317025455</v>
+        <v>1.064246938972987</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037179566496</v>
+        <v>1.040336967066692</v>
       </c>
       <c r="J23">
-        <v>0.9982421432135267</v>
+        <v>1.056729901164836</v>
       </c>
       <c r="K23">
-        <v>0.994995918395171</v>
+        <v>1.053706826650151</v>
       </c>
       <c r="L23">
-        <v>0.9984713640991013</v>
+        <v>1.059696255058506</v>
       </c>
       <c r="M23">
-        <v>0.9973188379499358</v>
+        <v>1.067783882196327</v>
       </c>
       <c r="N23">
-        <v>0.999659761556864</v>
+        <v>1.058230578833104</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9815662239047064</v>
+        <v>1.052534924206692</v>
       </c>
       <c r="D24">
-        <v>0.9921765847972032</v>
+        <v>1.052264679833466</v>
       </c>
       <c r="E24">
-        <v>0.9959418677041565</v>
+        <v>1.058329485317887</v>
       </c>
       <c r="F24">
-        <v>0.996185691157446</v>
+        <v>1.066719248010465</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042131080522443</v>
+        <v>1.040922128327628</v>
       </c>
       <c r="J24">
-        <v>1.009792809231756</v>
+        <v>1.058615304905203</v>
       </c>
       <c r="K24">
-        <v>1.006342495577824</v>
+        <v>1.055578947362586</v>
       </c>
       <c r="L24">
-        <v>1.010040625466893</v>
+        <v>1.06162343033475</v>
       </c>
       <c r="M24">
-        <v>1.010280123086294</v>
+        <v>1.069985497595283</v>
       </c>
       <c r="N24">
-        <v>1.01122683084572</v>
+        <v>1.060118660063041</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9975925370606054</v>
+        <v>1.055312181149118</v>
       </c>
       <c r="D25">
-        <v>1.006036607490312</v>
+        <v>1.054745127060202</v>
       </c>
       <c r="E25">
-        <v>1.01004204064425</v>
+        <v>1.060872405022429</v>
       </c>
       <c r="F25">
-        <v>1.011823875962752</v>
+        <v>1.069579642099476</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.047379714010937</v>
+        <v>1.041587676574825</v>
       </c>
       <c r="J25">
-        <v>1.022201194457677</v>
+        <v>1.060790009983668</v>
       </c>
       <c r="K25">
-        <v>1.018541930139288</v>
+        <v>1.057739283753917</v>
       </c>
       <c r="L25">
-        <v>1.02248644161058</v>
+        <v>1.063848168939282</v>
       </c>
       <c r="M25">
-        <v>1.02424137302436</v>
+        <v>1.072529663265349</v>
       </c>
       <c r="N25">
-        <v>1.023652837401923</v>
+        <v>1.062296453472159</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_252/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_252/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.057518251446868</v>
+        <v>1.009526542351384</v>
       </c>
       <c r="D2">
-        <v>1.056715957242074</v>
+        <v>1.016383455425124</v>
       </c>
       <c r="E2">
-        <v>1.062893469647623</v>
+        <v>1.020572695326347</v>
       </c>
       <c r="F2">
-        <v>1.071854599782754</v>
+        <v>1.023509521236052</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042107760283332</v>
+        <v>1.051223244912054</v>
       </c>
       <c r="J2">
-        <v>1.062514257117994</v>
+        <v>1.031426002369101</v>
       </c>
       <c r="K2">
-        <v>1.059452906078154</v>
+        <v>1.027619165453918</v>
       </c>
       <c r="L2">
-        <v>1.065613583238335</v>
+        <v>1.031752671075343</v>
       </c>
       <c r="M2">
-        <v>1.07455066508777</v>
+        <v>1.034650766053785</v>
       </c>
       <c r="N2">
-        <v>1.064023149235191</v>
+        <v>1.032890745598681</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.05911502416933</v>
+        <v>1.017769227827131</v>
       </c>
       <c r="D3">
-        <v>1.058142751221481</v>
+        <v>1.02354240370194</v>
       </c>
       <c r="E3">
-        <v>1.064356979464462</v>
+        <v>1.027861538108074</v>
       </c>
       <c r="F3">
-        <v>1.073502876126512</v>
+        <v>1.031602205617187</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042479212575983</v>
+        <v>1.053838717786214</v>
       </c>
       <c r="J3">
-        <v>1.063760419306233</v>
+        <v>1.037786934123072</v>
       </c>
       <c r="K3">
-        <v>1.060691834741804</v>
+        <v>1.033882662291773</v>
       </c>
       <c r="L3">
-        <v>1.066890369012287</v>
+        <v>1.038149916995708</v>
       </c>
       <c r="M3">
-        <v>1.076013523524804</v>
+        <v>1.04184608806845</v>
       </c>
       <c r="N3">
-        <v>1.065271081116673</v>
+        <v>1.039260710605352</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.060145989020426</v>
+        <v>1.022926749355371</v>
       </c>
       <c r="D4">
-        <v>1.059064097709289</v>
+        <v>1.028026896372424</v>
       </c>
       <c r="E4">
-        <v>1.065302196934802</v>
+        <v>1.032428689355726</v>
       </c>
       <c r="F4">
-        <v>1.07456785146581</v>
+        <v>1.036675294641628</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042716730368081</v>
+        <v>1.055456579264673</v>
       </c>
       <c r="J4">
-        <v>1.064564145330729</v>
+        <v>1.041761628594785</v>
       </c>
       <c r="K4">
-        <v>1.061491101628025</v>
+        <v>1.03779843149574</v>
       </c>
       <c r="L4">
-        <v>1.067714250061572</v>
+        <v>1.042150869840457</v>
       </c>
       <c r="M4">
-        <v>1.07695804147535</v>
+        <v>1.04635034884731</v>
       </c>
       <c r="N4">
-        <v>1.066075948524313</v>
+        <v>1.043241049599119</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.06057887737803</v>
+        <v>1.025055406401645</v>
       </c>
       <c r="D5">
-        <v>1.059450989022539</v>
+        <v>1.029878899283192</v>
       </c>
       <c r="E5">
-        <v>1.065699151008578</v>
+        <v>1.034315143107047</v>
       </c>
       <c r="F5">
-        <v>1.075015201179158</v>
+        <v>1.038771295786777</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04281590657633</v>
+        <v>1.056119761317352</v>
       </c>
       <c r="J5">
-        <v>1.064901411444186</v>
+        <v>1.043400731908699</v>
       </c>
       <c r="K5">
-        <v>1.061826545971066</v>
+        <v>1.039413700003853</v>
       </c>
       <c r="L5">
-        <v>1.068060070709025</v>
+        <v>1.043801656873133</v>
       </c>
       <c r="M5">
-        <v>1.077354635239489</v>
+        <v>1.048209814647532</v>
       </c>
       <c r="N5">
-        <v>1.066413693594336</v>
+        <v>1.044882480627746</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.060651530499894</v>
+        <v>1.025410567719002</v>
       </c>
       <c r="D6">
-        <v>1.059515924057079</v>
+        <v>1.030187965072901</v>
       </c>
       <c r="E6">
-        <v>1.065765777239053</v>
+        <v>1.034629976763349</v>
       </c>
       <c r="F6">
-        <v>1.07509029199197</v>
+        <v>1.039121135575619</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042832519122917</v>
+        <v>1.056230141463805</v>
       </c>
       <c r="J6">
-        <v>1.064958003763005</v>
+        <v>1.043674129939267</v>
       </c>
       <c r="K6">
-        <v>1.061882835501232</v>
+        <v>1.039683149690798</v>
       </c>
       <c r="L6">
-        <v>1.068118104145238</v>
+        <v>1.044077054022833</v>
       </c>
       <c r="M6">
-        <v>1.077421197098084</v>
+        <v>1.048520085263002</v>
       </c>
       <c r="N6">
-        <v>1.066470366280739</v>
+        <v>1.045156266914877</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.060151775361191</v>
+        <v>1.022955344806623</v>
       </c>
       <c r="D7">
-        <v>1.05906926909791</v>
+        <v>1.02805177103805</v>
       </c>
       <c r="E7">
-        <v>1.065307502674514</v>
+        <v>1.032454025486241</v>
       </c>
       <c r="F7">
-        <v>1.074573830398682</v>
+        <v>1.036703442813625</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042718058218711</v>
+        <v>1.055465506308155</v>
       </c>
       <c r="J7">
-        <v>1.064568654323367</v>
+        <v>1.041783653100949</v>
       </c>
       <c r="K7">
-        <v>1.061495586070631</v>
+        <v>1.037820133898395</v>
       </c>
       <c r="L7">
-        <v>1.067718873040512</v>
+        <v>1.042173047951814</v>
       </c>
       <c r="M7">
-        <v>1.076963342660386</v>
+        <v>1.046375326495243</v>
       </c>
       <c r="N7">
-        <v>1.066080463920238</v>
+        <v>1.043263105382607</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.058058361176819</v>
+        <v>1.012350282236573</v>
       </c>
       <c r="D8">
-        <v>1.057198544267197</v>
+        <v>1.018834799771479</v>
       </c>
       <c r="E8">
-        <v>1.063388441639612</v>
+        <v>1.023068248053261</v>
       </c>
       <c r="F8">
-        <v>1.072411973460063</v>
+        <v>1.026279835569574</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042233883394967</v>
+        <v>1.0521231402761</v>
       </c>
       <c r="J8">
-        <v>1.062935951630019</v>
+        <v>1.033606195599108</v>
       </c>
       <c r="K8">
-        <v>1.059872110039143</v>
+        <v>1.029765545340009</v>
       </c>
       <c r="L8">
-        <v>1.066045556882632</v>
+        <v>1.033944554809116</v>
       </c>
       <c r="M8">
-        <v>1.075045474711102</v>
+        <v>1.037115217962037</v>
       </c>
       <c r="N8">
-        <v>1.064445442601792</v>
+        <v>1.035074034953146</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.054351771230171</v>
+        <v>0.9921837943573057</v>
       </c>
       <c r="D9">
-        <v>1.053887274060213</v>
+        <v>1.001354420153509</v>
       </c>
       <c r="E9">
-        <v>1.059992853837604</v>
+        <v>1.005278015869521</v>
       </c>
       <c r="F9">
-        <v>1.068590039293027</v>
+        <v>1.006539304264622</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04135885138452</v>
+        <v>1.045618482179327</v>
       </c>
       <c r="J9">
-        <v>1.060038464218867</v>
+        <v>1.018015614641486</v>
       </c>
       <c r="K9">
-        <v>1.056992584472888</v>
+        <v>1.014425560990521</v>
       </c>
       <c r="L9">
-        <v>1.063079100268165</v>
+        <v>1.018286037449458</v>
       </c>
       <c r="M9">
-        <v>1.071649845012732</v>
+        <v>1.019527169349747</v>
       </c>
       <c r="N9">
-        <v>1.061543840426169</v>
+        <v>1.0194613135823</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.051868139582033</v>
+        <v>0.9775345995350894</v>
       </c>
       <c r="D10">
-        <v>1.051669265575735</v>
+        <v>0.9886964247102731</v>
       </c>
       <c r="E10">
-        <v>1.057719194054605</v>
+        <v>0.9924023343776963</v>
       </c>
       <c r="F10">
-        <v>1.066033077300311</v>
+        <v>0.9922611346725794</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040760620904636</v>
+        <v>1.040797531034201</v>
       </c>
       <c r="J10">
-        <v>1.058092547750064</v>
+        <v>1.006668794318029</v>
       </c>
       <c r="K10">
-        <v>1.055059798266281</v>
+        <v>1.003272812596</v>
       </c>
       <c r="L10">
-        <v>1.061088945995441</v>
+        <v>1.006910135514821</v>
       </c>
       <c r="M10">
-        <v>1.069374694812342</v>
+        <v>1.006771536815458</v>
       </c>
       <c r="N10">
-        <v>1.059595160532781</v>
+        <v>1.008098379472485</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.050789571466107</v>
+        <v>0.9708485169737667</v>
       </c>
       <c r="D11">
-        <v>1.050706234117474</v>
+        <v>0.9829308304555394</v>
       </c>
       <c r="E11">
-        <v>1.056732194445032</v>
+        <v>0.9865390902051214</v>
       </c>
       <c r="F11">
-        <v>1.064923608562975</v>
+        <v>0.985760727648557</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040498010801024</v>
+        <v>1.038575905804989</v>
       </c>
       <c r="J11">
-        <v>1.057246449336696</v>
+        <v>1.001486409826903</v>
       </c>
       <c r="K11">
-        <v>1.054219661920028</v>
+        <v>0.9981819887243175</v>
       </c>
       <c r="L11">
-        <v>1.060224104369746</v>
+        <v>1.001719403996658</v>
       </c>
       <c r="M11">
-        <v>1.068386698318233</v>
+        <v>1.000956266221781</v>
       </c>
       <c r="N11">
-        <v>1.058747860562617</v>
+        <v>1.002908635400954</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.050388458899488</v>
+        <v>0.968307690507506</v>
       </c>
       <c r="D12">
-        <v>1.050348117414243</v>
+        <v>0.9807417760432903</v>
       </c>
       <c r="E12">
-        <v>1.056365194026398</v>
+        <v>0.9843131784487672</v>
       </c>
       <c r="F12">
-        <v>1.064511146684357</v>
+        <v>0.9832930836246485</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040399925349643</v>
+        <v>1.037728600401351</v>
       </c>
       <c r="J12">
-        <v>1.056931634446573</v>
+        <v>0.9995166395305878</v>
       </c>
       <c r="K12">
-        <v>1.053907103373692</v>
+        <v>0.9962474735853973</v>
       </c>
       <c r="L12">
-        <v>1.059902389260263</v>
+        <v>0.9997472130674581</v>
       </c>
       <c r="M12">
-        <v>1.068019274397877</v>
+        <v>0.998747517358348</v>
       </c>
       <c r="N12">
-        <v>1.05843259859924</v>
+        <v>1.000936067804882</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.050474521029735</v>
+        <v>0.9688554035678492</v>
       </c>
       <c r="D13">
-        <v>1.050424953110722</v>
+        <v>0.9812135667220778</v>
       </c>
       <c r="E13">
-        <v>1.056443934449318</v>
+        <v>0.9847929030241904</v>
       </c>
       <c r="F13">
-        <v>1.064599637454021</v>
+        <v>0.983824899877232</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040420989523893</v>
+        <v>1.037911384705905</v>
       </c>
       <c r="J13">
-        <v>1.056999187735935</v>
+        <v>0.9999412670522754</v>
       </c>
       <c r="K13">
-        <v>1.053974170776149</v>
+        <v>0.9966644803441009</v>
       </c>
       <c r="L13">
-        <v>1.059971419872473</v>
+        <v>1.000172328301354</v>
       </c>
       <c r="M13">
-        <v>1.068098108077911</v>
+        <v>0.9992235911391663</v>
       </c>
       <c r="N13">
-        <v>1.058500247822022</v>
+        <v>1.001361298346356</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.050756425330713</v>
+        <v>0.970639697618859</v>
       </c>
       <c r="D14">
-        <v>1.050676640380135</v>
+        <v>0.9827508804461662</v>
       </c>
       <c r="E14">
-        <v>1.05670186598859</v>
+        <v>0.9863561059924647</v>
       </c>
       <c r="F14">
-        <v>1.064889521664134</v>
+        <v>0.9855578686775978</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040489914071664</v>
+        <v>1.038506330342229</v>
       </c>
       <c r="J14">
-        <v>1.05722043763682</v>
+        <v>1.001324529674902</v>
       </c>
       <c r="K14">
-        <v>1.054193835876955</v>
+        <v>0.998022996635663</v>
       </c>
       <c r="L14">
-        <v>1.060197521034326</v>
+        <v>1.001557309615958</v>
       </c>
       <c r="M14">
-        <v>1.068356335942904</v>
+        <v>1.000774714446956</v>
       </c>
       <c r="N14">
-        <v>1.058721811923144</v>
+        <v>1.002746525360569</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.050930051311634</v>
+        <v>0.9717312755169956</v>
       </c>
       <c r="D15">
-        <v>1.050831659373225</v>
+        <v>0.9836916286485579</v>
       </c>
       <c r="E15">
-        <v>1.056860734807689</v>
+        <v>0.9873127252919783</v>
       </c>
       <c r="F15">
-        <v>1.065068081382245</v>
+        <v>0.9866183968545293</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040532309046273</v>
+        <v>1.038869904843848</v>
       </c>
       <c r="J15">
-        <v>1.057356685645318</v>
+        <v>1.00217072435309</v>
       </c>
       <c r="K15">
-        <v>1.05432911297877</v>
+        <v>0.9988541130753773</v>
       </c>
       <c r="L15">
-        <v>1.060336766257998</v>
+        <v>1.002404654706375</v>
       </c>
       <c r="M15">
-        <v>1.068515380274543</v>
+        <v>1.00172380225109</v>
       </c>
       <c r="N15">
-        <v>1.058858253419441</v>
+        <v>1.00359392173226</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.051939653373741</v>
+        <v>0.9779706338758399</v>
       </c>
       <c r="D16">
-        <v>1.051733122730577</v>
+        <v>0.9890726874282385</v>
       </c>
       <c r="E16">
-        <v>1.057784644594504</v>
+        <v>0.9927850001119635</v>
       </c>
       <c r="F16">
-        <v>1.066106659861226</v>
+        <v>0.9926854105169445</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040777973895556</v>
+        <v>1.040941987964354</v>
       </c>
       <c r="J16">
-        <v>1.058148625855376</v>
+        <v>1.007006704235995</v>
       </c>
       <c r="K16">
-        <v>1.055115486534172</v>
+        <v>1.003604813877606</v>
       </c>
       <c r="L16">
-        <v>1.0611462767021</v>
+        <v>1.007248692260017</v>
       </c>
       <c r="M16">
-        <v>1.069440204071759</v>
+        <v>1.007150929838259</v>
       </c>
       <c r="N16">
-        <v>1.059651318275435</v>
+        <v>1.008436769261294</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.052572100680139</v>
+        <v>0.9817887995508551</v>
       </c>
       <c r="D17">
-        <v>1.052297878318776</v>
+        <v>0.9923687929927051</v>
       </c>
       <c r="E17">
-        <v>1.058363514627079</v>
+        <v>0.9961373650547944</v>
       </c>
       <c r="F17">
-        <v>1.066757511783858</v>
+        <v>0.9964024642330142</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040931113974585</v>
+        <v>1.042204561162825</v>
       </c>
       <c r="J17">
-        <v>1.058644444040284</v>
+        <v>1.00996525452665</v>
       </c>
       <c r="K17">
-        <v>1.055607887101052</v>
+        <v>1.006511961142791</v>
       </c>
       <c r="L17">
-        <v>1.061653226503356</v>
+        <v>1.010213460916583</v>
       </c>
       <c r="M17">
-        <v>1.070019553043422</v>
+        <v>1.010473866687911</v>
       </c>
       <c r="N17">
-        <v>1.060147840579036</v>
+        <v>1.011399521032712</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.052940694469918</v>
+        <v>0.9839832244266427</v>
       </c>
       <c r="D18">
-        <v>1.052627038700086</v>
+        <v>0.9942642490857222</v>
       </c>
       <c r="E18">
-        <v>1.058700920213356</v>
+        <v>0.9980653149159269</v>
       </c>
       <c r="F18">
-        <v>1.067136922832492</v>
+        <v>0.998540291494484</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041020093561084</v>
+        <v>1.042928204057851</v>
       </c>
       <c r="J18">
-        <v>1.058933309011201</v>
+        <v>1.011665287435598</v>
       </c>
       <c r="K18">
-        <v>1.055894785304175</v>
+        <v>1.008182729036516</v>
       </c>
       <c r="L18">
-        <v>1.061948624118401</v>
+        <v>1.011917527318276</v>
       </c>
       <c r="M18">
-        <v>1.070357204097115</v>
+        <v>1.012384269068337</v>
       </c>
       <c r="N18">
-        <v>1.060437115771345</v>
+        <v>1.013101968183387</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.053066324580913</v>
+        <v>0.984726090881654</v>
       </c>
       <c r="D19">
-        <v>1.052739231454661</v>
+        <v>0.9949060839879271</v>
       </c>
       <c r="E19">
-        <v>1.058815926496823</v>
+        <v>0.9987181769733399</v>
       </c>
       <c r="F19">
-        <v>1.067266255267536</v>
+        <v>0.9992642506456633</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041050374989068</v>
+        <v>1.043172831668468</v>
       </c>
       <c r="J19">
-        <v>1.059031747571331</v>
+        <v>1.012240727662442</v>
       </c>
       <c r="K19">
-        <v>1.055992557764765</v>
+        <v>1.008748309162942</v>
       </c>
       <c r="L19">
-        <v>1.062049296887378</v>
+        <v>1.012494410642864</v>
       </c>
       <c r="M19">
-        <v>1.070472288342464</v>
+        <v>1.0130310844851</v>
       </c>
       <c r="N19">
-        <v>1.060535694125522</v>
+        <v>1.013678225601357</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.052504276401238</v>
+        <v>0.9813825623322783</v>
       </c>
       <c r="D20">
-        <v>1.052237311529855</v>
+        <v>0.9920179874536558</v>
       </c>
       <c r="E20">
-        <v>1.058301432202238</v>
+        <v>0.9957805571725867</v>
       </c>
       <c r="F20">
-        <v>1.0666877043618</v>
+        <v>0.9960068262361081</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040914719145945</v>
+        <v>1.042070435523768</v>
       </c>
       <c r="J20">
-        <v>1.05859128241038</v>
+        <v>1.009650511490376</v>
       </c>
       <c r="K20">
-        <v>1.055555089388972</v>
+        <v>1.006202658180541</v>
       </c>
       <c r="L20">
-        <v>1.061598866444189</v>
+        <v>1.00989800839043</v>
       </c>
       <c r="M20">
-        <v>1.069957422741214</v>
+        <v>1.010120256093029</v>
       </c>
       <c r="N20">
-        <v>1.06009460345352</v>
+        <v>1.011084331025225</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.05067342501338</v>
+        <v>0.9701159010323207</v>
       </c>
       <c r="D21">
-        <v>1.050602535987576</v>
+        <v>0.9822995313538694</v>
       </c>
       <c r="E21">
-        <v>1.056625922288647</v>
+        <v>0.9858971500098609</v>
       </c>
       <c r="F21">
-        <v>1.064804167909134</v>
+        <v>0.9850490656902103</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040469632456624</v>
+        <v>1.038331760761246</v>
       </c>
       <c r="J21">
-        <v>1.057155299938886</v>
+        <v>1.000918468615859</v>
       </c>
       <c r="K21">
-        <v>1.054129163708443</v>
+        <v>0.9976241873558561</v>
       </c>
       <c r="L21">
-        <v>1.060130953054224</v>
+        <v>1.001150723302771</v>
       </c>
       <c r="M21">
-        <v>1.068280306454646</v>
+        <v>1.000319334239876</v>
       </c>
       <c r="N21">
-        <v>1.058656581722208</v>
+        <v>1.002339887648247</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.049519487418312</v>
+        <v>0.962696881859495</v>
       </c>
       <c r="D22">
-        <v>1.049572345393043</v>
+        <v>0.97591168198634</v>
       </c>
       <c r="E22">
-        <v>1.055570230873828</v>
+        <v>0.9794021526202429</v>
       </c>
       <c r="F22">
-        <v>1.063617849186108</v>
+        <v>0.9778489374547946</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040186660550062</v>
+        <v>1.035852072740863</v>
       </c>
       <c r="J22">
-        <v>1.056249333126056</v>
+        <v>0.9951663750024032</v>
       </c>
       <c r="K22">
-        <v>1.053229761756789</v>
+        <v>0.9919759281804493</v>
       </c>
       <c r="L22">
-        <v>1.059205267789281</v>
+        <v>0.9953930063369855</v>
       </c>
       <c r="M22">
-        <v>1.067223296965324</v>
+        <v>0.9938723643062448</v>
       </c>
       <c r="N22">
-        <v>1.057749328332587</v>
+        <v>0.9965796254020854</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.050131482076157</v>
+        <v>0.9666638132201675</v>
       </c>
       <c r="D23">
-        <v>1.050118694458587</v>
+        <v>0.9793260754975065</v>
       </c>
       <c r="E23">
-        <v>1.056130088030617</v>
+        <v>0.9828737019760205</v>
       </c>
       <c r="F23">
-        <v>1.064246938972987</v>
+        <v>0.9816973170254544</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040336967066692</v>
+        <v>1.037179566495999</v>
       </c>
       <c r="J23">
-        <v>1.056729901164836</v>
+        <v>0.998242143213526</v>
       </c>
       <c r="K23">
-        <v>1.053706826650151</v>
+        <v>0.9949959183951707</v>
       </c>
       <c r="L23">
-        <v>1.059696255058506</v>
+        <v>0.9984713640991004</v>
       </c>
       <c r="M23">
-        <v>1.067783882196327</v>
+        <v>0.9973188379499351</v>
       </c>
       <c r="N23">
-        <v>1.058230578833104</v>
+        <v>0.9996597615568636</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.052534924206692</v>
+        <v>0.9815662239047073</v>
       </c>
       <c r="D24">
-        <v>1.052264679833466</v>
+        <v>0.9921765847972038</v>
       </c>
       <c r="E24">
-        <v>1.058329485317887</v>
+        <v>0.9959418677041572</v>
       </c>
       <c r="F24">
-        <v>1.066719248010465</v>
+        <v>0.9961856911574469</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040922128327628</v>
+        <v>1.042131080522444</v>
       </c>
       <c r="J24">
-        <v>1.058615304905203</v>
+        <v>1.009792809231757</v>
       </c>
       <c r="K24">
-        <v>1.055578947362586</v>
+        <v>1.006342495577825</v>
       </c>
       <c r="L24">
-        <v>1.06162343033475</v>
+        <v>1.010040625466893</v>
       </c>
       <c r="M24">
-        <v>1.069985497595283</v>
+        <v>1.010280123086294</v>
       </c>
       <c r="N24">
-        <v>1.060118660063041</v>
+        <v>1.01122683084572</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.055312181149118</v>
+        <v>0.9975925370606071</v>
       </c>
       <c r="D25">
-        <v>1.054745127060202</v>
+        <v>1.006036607490314</v>
       </c>
       <c r="E25">
-        <v>1.060872405022429</v>
+        <v>1.010042040644251</v>
       </c>
       <c r="F25">
-        <v>1.069579642099476</v>
+        <v>1.011823875962753</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041587676574825</v>
+        <v>1.047379714010938</v>
       </c>
       <c r="J25">
-        <v>1.060790009983668</v>
+        <v>1.022201194457679</v>
       </c>
       <c r="K25">
-        <v>1.057739283753917</v>
+        <v>1.018541930139289</v>
       </c>
       <c r="L25">
-        <v>1.063848168939282</v>
+        <v>1.022486441610582</v>
       </c>
       <c r="M25">
-        <v>1.072529663265349</v>
+        <v>1.024241373024361</v>
       </c>
       <c r="N25">
-        <v>1.062296453472159</v>
+        <v>1.023652837401924</v>
       </c>
     </row>
   </sheetData>
